--- a/ConvertedEqual/Vermont_Converted.xlsx
+++ b/ConvertedEqual/Vermont_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -816,6 +816,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD221"/>
+  <dimension ref="A1:AD233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,6 +1443,9 @@
       <c r="O3" s="2">
         <v>43907</v>
       </c>
+      <c r="P3" s="2">
+        <v>43907</v>
+      </c>
       <c r="Q3" s="2">
         <v>43913</v>
       </c>
@@ -1578,10 +1617,10 @@
         <v>0.5</v>
       </c>
       <c r="S7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1599,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1611,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -2812,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2904,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2996,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3088,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -3138,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3180,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.1153846153846154</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3230,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3272,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3322,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3364,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3414,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3456,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3506,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3548,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3598,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3640,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3690,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3732,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.3846153846153847</v>
+        <v>0.4583333333333334</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3782,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -3824,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.5384615384615385</v>
+        <v>0.6250000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3874,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -3916,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3966,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -4008,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -4058,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -4100,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -4150,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -4192,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4242,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -4284,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4334,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -4376,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4426,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -4468,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4518,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -4560,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4610,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -4652,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0.7884615384538461</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4702,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -4744,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="AD42">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4794,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -4836,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AD43">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4886,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -4928,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4978,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -5020,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -5070,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -5112,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="AD46">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -5162,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -5204,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -5254,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -5296,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -5346,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -5388,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5438,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -5480,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5530,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -5572,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="AD51">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5622,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -5664,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5714,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -5756,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5806,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -5848,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="AD54">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5898,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -5940,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5990,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -6032,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="AD56">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -6082,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -6124,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -6174,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -6216,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -6266,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -6308,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AD59">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6358,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -6400,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="AD60">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6450,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -6492,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="AD61">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6542,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -6584,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6634,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -6676,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6726,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -6768,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6818,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -6860,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="AD65">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6910,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -6952,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="AD66">
-        <v>0.8076923076846154</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -7002,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -7044,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="AD67">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -7094,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -7136,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="AD68">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -7186,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -7228,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AD69">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -7278,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -7320,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="AD70">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7370,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -7412,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AD71">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7462,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -7504,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="AD72">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7554,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -7596,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AD73">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7646,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -7688,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="AD74">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7738,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -7780,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="AD75">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7830,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -7872,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="AD76">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333331</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7922,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -7964,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="AD77">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -8014,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -8056,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="AD78">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -8106,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -8148,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="AD79">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -8198,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -8240,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="AD80">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -8290,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -8332,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="AD81">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8382,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -8424,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="AD82">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8474,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -8516,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="AD83">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8566,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -8608,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="AD84">
-        <v>0.6730769230769231</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8658,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -8700,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>0.5961538461538463</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8750,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -8792,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AD86">
-        <v>0.5961538461538463</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8842,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -8884,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="AD87">
-        <v>0.5961538461538463</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8934,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -8976,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="AD88">
-        <v>0.5192307692307693</v>
+        <v>0.6041666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -9026,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -9068,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="AD89">
-        <v>0.5192307692307693</v>
+        <v>0.6041666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -9118,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -9160,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="AD90">
-        <v>0.5192307692307693</v>
+        <v>0.6041666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -9210,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -9252,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>0.5192307692307693</v>
+        <v>0.6041666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -9302,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -9344,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="AD92">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9394,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -9436,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="AD93">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9486,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -9528,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="AD94">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9578,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -9620,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AD95">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9670,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -9712,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AD96">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9762,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -9804,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="AD97">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9854,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -9896,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="AD98">
-        <v>0.5000000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9946,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -9988,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="AD99">
-        <v>0.4692307692307693</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -10038,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -10080,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="AD100">
-        <v>0.4692307692307693</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -10130,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -10172,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="AD101">
-        <v>0.4692307692307693</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -10222,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -10264,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="AD102">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10314,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -10356,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="AD103">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10406,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -10448,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="AD104">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10498,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -10540,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="AD105">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10590,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -10632,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="AD106">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10682,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -10724,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AD107">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -10774,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -10816,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="AD108">
-        <v>0.2692307692307692</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:30">
@@ -10908,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AD109">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -11000,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="AD110">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:30">
@@ -11092,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="AD111">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -11184,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="AD112">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -11276,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="AD113">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -11368,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="AD114">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11460,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11552,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11644,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11736,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AD118">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11828,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11920,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="AD120">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -12012,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="AD121">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -12104,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="AD122">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -12196,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="AD123">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -12288,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="AD124">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -12380,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="AD125">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12472,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="AD126">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12564,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="AD127">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12656,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="AD128">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12748,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AD129">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12840,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="AD130">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12932,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="AD131">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -13024,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="AD132">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -13116,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="AD133">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -13208,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AD134">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -13300,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="AD135">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -13392,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="AD136">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13484,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="AD137">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13576,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="AD138">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13668,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="AD139">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13760,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="AD140">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13852,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="AD141">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13944,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="AD142">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -14036,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="AD143">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -14128,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="AD144">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -14220,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="AD145">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14312,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="AD146">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14404,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="AD147">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14496,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="AD148">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14588,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="AD149">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14680,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="AD150">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14772,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="AD151">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14864,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="AD152">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14956,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="AD153">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -15048,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -15140,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -15232,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="AD156">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -15324,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="AD157">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15416,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="AD158">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15508,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="AD159">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15600,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="AD160">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15692,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="AD161">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15784,7 +15823,7 @@
         <v>1</v>
       </c>
       <c r="AD162">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15876,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="AD163">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15968,7 +16007,7 @@
         <v>1</v>
       </c>
       <c r="AD164">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -16060,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="AD165">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -16152,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="AD166">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -16244,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="AD167">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -16336,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="AD168">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16428,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="AD169">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16520,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="AD170">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16612,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="AD171">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16704,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="AD172">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16796,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="AD173">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16888,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="AD174">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16980,7 +17019,7 @@
         <v>1</v>
       </c>
       <c r="AD175">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -17072,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="AD176">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -17164,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="AD177">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17256,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="AD178">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -17348,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="AD179">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17440,7 +17479,7 @@
         <v>1</v>
       </c>
       <c r="AD180">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17532,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="AD181">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17624,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="AD182">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17716,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="AD183">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17808,7 +17847,7 @@
         <v>1</v>
       </c>
       <c r="AD184">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17900,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="AD185">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17992,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="AD186">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -18084,7 +18123,7 @@
         <v>1</v>
       </c>
       <c r="AD187">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -18176,7 +18215,7 @@
         <v>1</v>
       </c>
       <c r="AD188">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -18268,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="AD189">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -18360,7 +18399,7 @@
         <v>1</v>
       </c>
       <c r="AD190">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18452,7 +18491,7 @@
         <v>1</v>
       </c>
       <c r="AD191">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18544,7 +18583,7 @@
         <v>1</v>
       </c>
       <c r="AD192">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18636,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="AD193">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18728,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AD194">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18820,7 +18859,7 @@
         <v>1</v>
       </c>
       <c r="AD195">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18912,7 +18951,7 @@
         <v>1</v>
       </c>
       <c r="AD196">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -19004,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="AD197">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -19096,7 +19135,7 @@
         <v>1</v>
       </c>
       <c r="AD198">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -19188,7 +19227,7 @@
         <v>1</v>
       </c>
       <c r="AD199">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -19280,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="AD200">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -19372,7 +19411,7 @@
         <v>1</v>
       </c>
       <c r="AD201">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19464,7 +19503,7 @@
         <v>1</v>
       </c>
       <c r="AD202">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19556,7 +19595,7 @@
         <v>1</v>
       </c>
       <c r="AD203">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19648,7 +19687,7 @@
         <v>1</v>
       </c>
       <c r="AD204">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19740,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AD205">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19832,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="AD206">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19924,7 +19963,7 @@
         <v>1</v>
       </c>
       <c r="AD207">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -20016,7 +20055,7 @@
         <v>1</v>
       </c>
       <c r="AD208">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -20108,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="AD209">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20200,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="AD210">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20292,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="AD211">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20384,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="AD212">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20476,7 +20515,7 @@
         <v>1</v>
       </c>
       <c r="AD213">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20568,7 +20607,7 @@
         <v>1</v>
       </c>
       <c r="AD214">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20660,7 +20699,7 @@
         <v>1</v>
       </c>
       <c r="AD215">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20752,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="AD216">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20844,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="AD217">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20936,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AD218">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21028,7 +21067,7 @@
         <v>1</v>
       </c>
       <c r="AD219">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21120,7 +21159,7 @@
         <v>1</v>
       </c>
       <c r="AD220">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -21212,7 +21251,1111 @@
         <v>1</v>
       </c>
       <c r="AD221">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30">
+      <c r="A222" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
+      <c r="AD222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30">
+      <c r="A223" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>1</v>
+      </c>
+      <c r="AD223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30">
+      <c r="A224" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
+      </c>
+      <c r="AC224">
+        <v>1</v>
+      </c>
+      <c r="AD224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30">
+      <c r="A225" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>1</v>
+      </c>
+      <c r="AD225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30">
+      <c r="A226" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
+      <c r="AD226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30">
+      <c r="A227" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
+      <c r="AD227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30">
+      <c r="A228" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>1</v>
+      </c>
+      <c r="AD228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30">
+      <c r="A229" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30">
+      <c r="A230" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AC230">
+        <v>1</v>
+      </c>
+      <c r="AD230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30">
+      <c r="A231" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
+      <c r="AD231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30">
+      <c r="A232" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
+      </c>
+      <c r="AD232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30">
+      <c r="A233" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AC233">
+        <v>1</v>
+      </c>
+      <c r="AD233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -21436,6 +22579,9 @@
       <c r="B16" t="s">
         <v>31</v>
       </c>
+      <c r="C16" s="2">
+        <v>43907</v>
+      </c>
       <c r="D16" s="2">
         <v>43990</v>
       </c>
